--- a/natmiOut/OldD4/LR-pairs_lrc2p/Dhh-Cdon.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Dhh-Cdon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,9 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Cdon</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.87059015206326</v>
+        <v>2.598497666666667</v>
       </c>
       <c r="H2">
-        <v>1.87059015206326</v>
+        <v>7.795493</v>
       </c>
       <c r="I2">
-        <v>0.5460619181717067</v>
+        <v>0.4975492541812636</v>
       </c>
       <c r="J2">
-        <v>0.5460619181717067</v>
+        <v>0.5480655423843006</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.26032373495921</v>
+        <v>1.405011</v>
       </c>
       <c r="N2">
-        <v>1.26032373495921</v>
+        <v>4.215033</v>
       </c>
       <c r="O2">
-        <v>0.04190567758326794</v>
+        <v>0.04245885300950829</v>
       </c>
       <c r="P2">
-        <v>0.04190567758326794</v>
+        <v>0.05276971215004659</v>
       </c>
       <c r="Q2">
-        <v>2.357549167026284</v>
+        <v>3.650917805141</v>
       </c>
       <c r="R2">
-        <v>2.357549167026284</v>
+        <v>32.858260246269</v>
       </c>
       <c r="S2">
-        <v>0.02288309468340438</v>
+        <v>0.02112537064827275</v>
       </c>
       <c r="T2">
-        <v>0.02288309468340438</v>
+        <v>0.0289212609109787</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.87059015206326</v>
+        <v>2.598497666666667</v>
       </c>
       <c r="H3">
-        <v>1.87059015206326</v>
+        <v>7.795493</v>
       </c>
       <c r="I3">
-        <v>0.5460619181717067</v>
+        <v>0.4975492541812636</v>
       </c>
       <c r="J3">
-        <v>0.5460619181717067</v>
+        <v>0.5480655423843006</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.2419355541604</v>
+        <v>11.92168433333333</v>
       </c>
       <c r="N3">
-        <v>11.2419355541604</v>
+        <v>35.765053</v>
       </c>
       <c r="O3">
-        <v>0.3737935846774871</v>
+        <v>0.3602683841868553</v>
       </c>
       <c r="P3">
-        <v>0.3737935846774871</v>
+        <v>0.4477572421950576</v>
       </c>
       <c r="Q3">
-        <v>21.02905393774227</v>
+        <v>30.97846892290323</v>
       </c>
       <c r="R3">
-        <v>21.02905393774227</v>
+        <v>278.806220306129</v>
       </c>
       <c r="S3">
-        <v>0.2041144418492669</v>
+        <v>0.1792512658572588</v>
       </c>
       <c r="T3">
-        <v>0.2041144418492669</v>
+        <v>0.2454003158001329</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.87059015206326</v>
+        <v>2.598497666666667</v>
       </c>
       <c r="H4">
-        <v>1.87059015206326</v>
+        <v>7.795493</v>
       </c>
       <c r="I4">
-        <v>0.5460619181717067</v>
+        <v>0.4975492541812636</v>
       </c>
       <c r="J4">
-        <v>0.5460619181717067</v>
+        <v>0.5480655423843006</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.116048763867579</v>
+        <v>0.1483576666666667</v>
       </c>
       <c r="N4">
-        <v>0.116048763867579</v>
+        <v>0.4450730000000001</v>
       </c>
       <c r="O4">
-        <v>0.003858613424215923</v>
+        <v>0.004483307505659122</v>
       </c>
       <c r="P4">
-        <v>0.003858613424215923</v>
+        <v>0.005572049873810641</v>
       </c>
       <c r="Q4">
-        <v>0.2170796748498079</v>
+        <v>0.3855070506654446</v>
       </c>
       <c r="R4">
-        <v>0.2170796748498079</v>
+        <v>3.469563455989001</v>
       </c>
       <c r="S4">
-        <v>0.002107041847910444</v>
+        <v>0.002230666305705958</v>
       </c>
       <c r="T4">
-        <v>0.002107041847910444</v>
+        <v>0.003053848536282403</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.87059015206326</v>
+        <v>2.598497666666667</v>
       </c>
       <c r="H5">
-        <v>1.87059015206326</v>
+        <v>7.795493</v>
       </c>
       <c r="I5">
-        <v>0.5460619181717067</v>
+        <v>0.4975492541812636</v>
       </c>
       <c r="J5">
-        <v>0.5460619181717067</v>
+        <v>0.5480655423843006</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>17.4569420716506</v>
+        <v>0.218697</v>
       </c>
       <c r="N5">
-        <v>17.4569420716506</v>
+        <v>0.656091</v>
       </c>
       <c r="O5">
-        <v>0.5804421243150291</v>
+        <v>0.006608933151854636</v>
       </c>
       <c r="P5">
-        <v>0.5804421243150291</v>
+        <v>0.008213870025272926</v>
       </c>
       <c r="Q5">
-        <v>32.65478392436842</v>
+        <v>0.5682836442070001</v>
       </c>
       <c r="R5">
-        <v>32.65478392436842</v>
+        <v>5.114552797863</v>
       </c>
       <c r="S5">
-        <v>0.316957339791125</v>
+        <v>0.003288269760639102</v>
       </c>
       <c r="T5">
-        <v>0.316957339791125</v>
+        <v>0.004501739130475355</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.160111037348424</v>
+        <v>2.598497666666667</v>
       </c>
       <c r="H6">
-        <v>0.160111037348424</v>
+        <v>7.795493</v>
       </c>
       <c r="I6">
-        <v>0.0467395490554178</v>
+        <v>0.4975492541812636</v>
       </c>
       <c r="J6">
-        <v>0.0467395490554178</v>
+        <v>0.5480655423843006</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.26032373495921</v>
+        <v>19.39737</v>
       </c>
       <c r="N6">
-        <v>1.26032373495921</v>
+        <v>38.79474</v>
       </c>
       <c r="O6">
-        <v>0.04190567758326794</v>
+        <v>0.5861805221461225</v>
       </c>
       <c r="P6">
-        <v>0.04190567758326794</v>
+        <v>0.4856871257558122</v>
       </c>
       <c r="Q6">
-        <v>0.2017917405991593</v>
+        <v>50.40402068447</v>
       </c>
       <c r="R6">
-        <v>0.2017917405991593</v>
+        <v>302.42412410682</v>
       </c>
       <c r="S6">
-        <v>0.001958652473103674</v>
+        <v>0.2916536816093869</v>
       </c>
       <c r="T6">
-        <v>0.001958652473103674</v>
+        <v>0.2661883780064312</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.160111037348424</v>
+        <v>0.883041</v>
       </c>
       <c r="H7">
-        <v>0.160111037348424</v>
+        <v>2.649123</v>
       </c>
       <c r="I7">
-        <v>0.0467395490554178</v>
+        <v>0.1690809257200836</v>
       </c>
       <c r="J7">
-        <v>0.0467395490554178</v>
+        <v>0.1862477503138962</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.2419355541604</v>
+        <v>1.405011</v>
       </c>
       <c r="N7">
-        <v>11.2419355541604</v>
+        <v>4.215033</v>
       </c>
       <c r="O7">
-        <v>0.3737935846774871</v>
+        <v>0.04245885300950829</v>
       </c>
       <c r="P7">
-        <v>0.3737935846774871</v>
+        <v>0.05276971215004659</v>
       </c>
       <c r="Q7">
-        <v>1.799957963380751</v>
+        <v>1.240682318451</v>
       </c>
       <c r="R7">
-        <v>1.799957963380751</v>
+        <v>11.166140866059</v>
       </c>
       <c r="S7">
-        <v>0.01747094358763387</v>
+        <v>0.007178982171860617</v>
       </c>
       <c r="T7">
-        <v>0.01747094358763387</v>
+        <v>0.009828240172658051</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.160111037348424</v>
+        <v>0.883041</v>
       </c>
       <c r="H8">
-        <v>0.160111037348424</v>
+        <v>2.649123</v>
       </c>
       <c r="I8">
-        <v>0.0467395490554178</v>
+        <v>0.1690809257200836</v>
       </c>
       <c r="J8">
-        <v>0.0467395490554178</v>
+        <v>0.1862477503138962</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.116048763867579</v>
+        <v>11.92168433333333</v>
       </c>
       <c r="N8">
-        <v>0.116048763867579</v>
+        <v>35.765053</v>
       </c>
       <c r="O8">
-        <v>0.003858613424215923</v>
+        <v>0.3602683841868553</v>
       </c>
       <c r="P8">
-        <v>0.003858613424215923</v>
+        <v>0.4477572421950576</v>
       </c>
       <c r="Q8">
-        <v>0.01858068796584038</v>
+        <v>10.527336055391</v>
       </c>
       <c r="R8">
-        <v>0.01858068796584038</v>
+        <v>94.74602449851901</v>
       </c>
       <c r="S8">
-        <v>0.0001803498514270338</v>
+        <v>0.06091451190599221</v>
       </c>
       <c r="T8">
-        <v>0.0001803498514270338</v>
+        <v>0.08339377904558383</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.160111037348424</v>
+        <v>0.883041</v>
       </c>
       <c r="H9">
-        <v>0.160111037348424</v>
+        <v>2.649123</v>
       </c>
       <c r="I9">
-        <v>0.0467395490554178</v>
+        <v>0.1690809257200836</v>
       </c>
       <c r="J9">
-        <v>0.0467395490554178</v>
+        <v>0.1862477503138962</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.4569420716506</v>
+        <v>0.1483576666666667</v>
       </c>
       <c r="N9">
-        <v>17.4569420716506</v>
+        <v>0.4450730000000001</v>
       </c>
       <c r="O9">
-        <v>0.5804421243150291</v>
+        <v>0.004483307505659122</v>
       </c>
       <c r="P9">
-        <v>0.5804421243150291</v>
+        <v>0.005572049873810641</v>
       </c>
       <c r="Q9">
-        <v>2.795049104023324</v>
+        <v>0.131005902331</v>
       </c>
       <c r="R9">
-        <v>2.795049104023324</v>
+        <v>1.179053120979</v>
       </c>
       <c r="S9">
-        <v>0.02712960314325322</v>
+        <v>0.0007580417833446432</v>
       </c>
       <c r="T9">
-        <v>0.02712960314325322</v>
+        <v>0.001037781753634061</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.39489962583334</v>
+        <v>0.883041</v>
       </c>
       <c r="H10">
-        <v>1.39489962583334</v>
+        <v>2.649123</v>
       </c>
       <c r="I10">
-        <v>0.4071985327728755</v>
+        <v>0.1690809257200836</v>
       </c>
       <c r="J10">
-        <v>0.4071985327728755</v>
+        <v>0.1862477503138962</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.26032373495921</v>
+        <v>0.218697</v>
       </c>
       <c r="N10">
-        <v>1.26032373495921</v>
+        <v>0.656091</v>
       </c>
       <c r="O10">
-        <v>0.04190567758326794</v>
+        <v>0.006608933151854636</v>
       </c>
       <c r="P10">
-        <v>0.04190567758326794</v>
+        <v>0.008213870025272926</v>
       </c>
       <c r="Q10">
-        <v>1.75802510632348</v>
+        <v>0.193118417577</v>
       </c>
       <c r="R10">
-        <v>1.75802510632348</v>
+        <v>1.738065758193</v>
       </c>
       <c r="S10">
-        <v>0.01706393042675989</v>
+        <v>0.001117444535337731</v>
       </c>
       <c r="T10">
-        <v>0.01706393042675989</v>
+        <v>0.001529814813577828</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.39489962583334</v>
+        <v>0.883041</v>
       </c>
       <c r="H11">
-        <v>1.39489962583334</v>
+        <v>2.649123</v>
       </c>
       <c r="I11">
-        <v>0.4071985327728755</v>
+        <v>0.1690809257200836</v>
       </c>
       <c r="J11">
-        <v>0.4071985327728755</v>
+        <v>0.1862477503138962</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.2419355541604</v>
+        <v>19.39737</v>
       </c>
       <c r="N11">
-        <v>11.2419355541604</v>
+        <v>38.79474</v>
       </c>
       <c r="O11">
-        <v>0.3737935846774871</v>
+        <v>0.5861805221461225</v>
       </c>
       <c r="P11">
-        <v>0.3737935846774871</v>
+        <v>0.4856871257558122</v>
       </c>
       <c r="Q11">
-        <v>15.68137169814086</v>
+        <v>17.12867300217</v>
       </c>
       <c r="R11">
-        <v>15.68137169814086</v>
+        <v>102.77203801302</v>
       </c>
       <c r="S11">
-        <v>0.1522081992405863</v>
+        <v>0.09911194532354833</v>
       </c>
       <c r="T11">
-        <v>0.1522081992405863</v>
+        <v>0.0904581345284424</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.39489962583334</v>
+        <v>0.255631</v>
       </c>
       <c r="H12">
-        <v>1.39489962583334</v>
+        <v>0.7668929999999999</v>
       </c>
       <c r="I12">
-        <v>0.4071985327728755</v>
+        <v>0.04894713396405228</v>
       </c>
       <c r="J12">
-        <v>0.4071985327728755</v>
+        <v>0.05391674753549563</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.116048763867579</v>
+        <v>1.405011</v>
       </c>
       <c r="N12">
-        <v>0.116048763867579</v>
+        <v>4.215033</v>
       </c>
       <c r="O12">
-        <v>0.003858613424215923</v>
+        <v>0.04245885300950829</v>
       </c>
       <c r="P12">
-        <v>0.003858613424215923</v>
+        <v>0.05276971215004659</v>
       </c>
       <c r="Q12">
-        <v>0.1618763772973076</v>
+        <v>0.359164366941</v>
       </c>
       <c r="R12">
-        <v>0.1618763772973076</v>
+        <v>3.232479302469</v>
       </c>
       <c r="S12">
-        <v>0.001571221724878445</v>
+        <v>0.002078239166216406</v>
       </c>
       <c r="T12">
-        <v>0.001571221724878445</v>
+        <v>0.002845171247514838</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.255631</v>
+      </c>
+      <c r="H13">
+        <v>0.7668929999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.04894713396405228</v>
+      </c>
+      <c r="J13">
+        <v>0.05391674753549563</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>11.92168433333333</v>
+      </c>
+      <c r="N13">
+        <v>35.765053</v>
+      </c>
+      <c r="O13">
+        <v>0.3602683841868553</v>
+      </c>
+      <c r="P13">
+        <v>0.4477572421950576</v>
+      </c>
+      <c r="Q13">
+        <v>3.047552087814333</v>
+      </c>
+      <c r="R13">
+        <v>27.427968790329</v>
+      </c>
+      <c r="S13">
+        <v>0.01763410486380666</v>
+      </c>
+      <c r="T13">
+        <v>0.02414161418462069</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.255631</v>
+      </c>
+      <c r="H14">
+        <v>0.7668929999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.04894713396405228</v>
+      </c>
+      <c r="J14">
+        <v>0.05391674753549563</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1483576666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.4450730000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.004483307505659122</v>
+      </c>
+      <c r="P14">
+        <v>0.005572049873810641</v>
+      </c>
+      <c r="Q14">
+        <v>0.03792481868766667</v>
+      </c>
+      <c r="R14">
+        <v>0.341323368189</v>
+      </c>
+      <c r="S14">
+        <v>0.0002194450530815381</v>
+      </c>
+      <c r="T14">
+        <v>0.0003004268063014386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.255631</v>
+      </c>
+      <c r="H15">
+        <v>0.7668929999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.04894713396405228</v>
+      </c>
+      <c r="J15">
+        <v>0.05391674753549563</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.218697</v>
+      </c>
+      <c r="N15">
+        <v>0.656091</v>
+      </c>
+      <c r="O15">
+        <v>0.006608933151854636</v>
+      </c>
+      <c r="P15">
+        <v>0.008213870025272926</v>
+      </c>
+      <c r="Q15">
+        <v>0.055905732807</v>
+      </c>
+      <c r="R15">
+        <v>0.5031515952629999</v>
+      </c>
+      <c r="S15">
+        <v>0.0003234883363432951</v>
+      </c>
+      <c r="T15">
+        <v>0.0004428651564420155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.255631</v>
+      </c>
+      <c r="H16">
+        <v>0.7668929999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.04894713396405228</v>
+      </c>
+      <c r="J16">
+        <v>0.05391674753549563</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>19.39737</v>
+      </c>
+      <c r="N16">
+        <v>38.79474</v>
+      </c>
+      <c r="O16">
+        <v>0.5861805221461225</v>
+      </c>
+      <c r="P16">
+        <v>0.4856871257558122</v>
+      </c>
+      <c r="Q16">
+        <v>4.958569090469999</v>
+      </c>
+      <c r="R16">
+        <v>29.75141454281999</v>
+      </c>
+      <c r="S16">
+        <v>0.02869185654460437</v>
+      </c>
+      <c r="T16">
+        <v>0.02618667014061664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.04129366666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.123881</v>
+      </c>
+      <c r="I17">
+        <v>0.007906735232425854</v>
+      </c>
+      <c r="J17">
+        <v>0.00870950784717651</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.405011</v>
+      </c>
+      <c r="N17">
+        <v>4.215033</v>
+      </c>
+      <c r="O17">
+        <v>0.04245885300950829</v>
+      </c>
+      <c r="P17">
+        <v>0.05276971215004659</v>
+      </c>
+      <c r="Q17">
+        <v>0.058018055897</v>
+      </c>
+      <c r="R17">
+        <v>0.5221625030730001</v>
+      </c>
+      <c r="S17">
+        <v>0.0003357109090186697</v>
+      </c>
+      <c r="T17">
+        <v>0.0004595982220640764</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.04129366666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.123881</v>
+      </c>
+      <c r="I18">
+        <v>0.007906735232425854</v>
+      </c>
+      <c r="J18">
+        <v>0.00870950784717651</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>11.92168433333333</v>
+      </c>
+      <c r="N18">
+        <v>35.765053</v>
+      </c>
+      <c r="O18">
+        <v>0.3602683841868553</v>
+      </c>
+      <c r="P18">
+        <v>0.4477572421950576</v>
+      </c>
+      <c r="Q18">
+        <v>0.4922900589658889</v>
+      </c>
+      <c r="R18">
+        <v>4.430610530693</v>
+      </c>
+      <c r="S18">
+        <v>0.002848546726379343</v>
+      </c>
+      <c r="T18">
+        <v>0.003899745214527967</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.39489962583334</v>
-      </c>
-      <c r="H13">
-        <v>1.39489962583334</v>
-      </c>
-      <c r="I13">
-        <v>0.4071985327728755</v>
-      </c>
-      <c r="J13">
-        <v>0.4071985327728755</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>17.4569420716506</v>
-      </c>
-      <c r="N13">
-        <v>17.4569420716506</v>
-      </c>
-      <c r="O13">
-        <v>0.5804421243150291</v>
-      </c>
-      <c r="P13">
-        <v>0.5804421243150291</v>
-      </c>
-      <c r="Q13">
-        <v>24.35068196393971</v>
-      </c>
-      <c r="R13">
-        <v>24.35068196393971</v>
-      </c>
-      <c r="S13">
-        <v>0.2363551813806509</v>
-      </c>
-      <c r="T13">
-        <v>0.2363551813806509</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.04129366666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.123881</v>
+      </c>
+      <c r="I19">
+        <v>0.007906735232425854</v>
+      </c>
+      <c r="J19">
+        <v>0.00870950784717651</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1483576666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.4450730000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.004483307505659122</v>
+      </c>
+      <c r="P19">
+        <v>0.005572049873810641</v>
+      </c>
+      <c r="Q19">
+        <v>0.006126232034777778</v>
+      </c>
+      <c r="R19">
+        <v>0.05513608831300001</v>
+      </c>
+      <c r="S19">
+        <v>3.544832541279426E-05</v>
+      </c>
+      <c r="T19">
+        <v>4.852981210081266E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.04129366666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.123881</v>
+      </c>
+      <c r="I20">
+        <v>0.007906735232425854</v>
+      </c>
+      <c r="J20">
+        <v>0.00870950784717651</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.218697</v>
+      </c>
+      <c r="N20">
+        <v>0.656091</v>
+      </c>
+      <c r="O20">
+        <v>0.006608933151854636</v>
+      </c>
+      <c r="P20">
+        <v>0.008213870025272926</v>
+      </c>
+      <c r="Q20">
+        <v>0.009030801018999999</v>
+      </c>
+      <c r="R20">
+        <v>0.08127720917099999</v>
+      </c>
+      <c r="S20">
+        <v>5.22550846005163E-05</v>
+      </c>
+      <c r="T20">
+        <v>7.153876544080246E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.04129366666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.123881</v>
+      </c>
+      <c r="I21">
+        <v>0.007906735232425854</v>
+      </c>
+      <c r="J21">
+        <v>0.00870950784717651</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>19.39737</v>
+      </c>
+      <c r="N21">
+        <v>38.79474</v>
+      </c>
+      <c r="O21">
+        <v>0.5861805221461225</v>
+      </c>
+      <c r="P21">
+        <v>0.4856871257558122</v>
+      </c>
+      <c r="Q21">
+        <v>0.8009885309899999</v>
+      </c>
+      <c r="R21">
+        <v>4.80593118594</v>
+      </c>
+      <c r="S21">
+        <v>0.00463477418701453</v>
+      </c>
+      <c r="T21">
+        <v>0.004230095833042851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.4441305</v>
+      </c>
+      <c r="H22">
+        <v>2.888261</v>
+      </c>
+      <c r="I22">
+        <v>0.2765159509021746</v>
+      </c>
+      <c r="J22">
+        <v>0.203060451919131</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.405011</v>
+      </c>
+      <c r="N22">
+        <v>4.215033</v>
+      </c>
+      <c r="O22">
+        <v>0.04245885300950829</v>
+      </c>
+      <c r="P22">
+        <v>0.05276971215004659</v>
+      </c>
+      <c r="Q22">
+        <v>2.0290192379355</v>
+      </c>
+      <c r="R22">
+        <v>12.174115427613</v>
+      </c>
+      <c r="S22">
+        <v>0.01174055011413984</v>
+      </c>
+      <c r="T22">
+        <v>0.01071544159683092</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.4441305</v>
+      </c>
+      <c r="H23">
+        <v>2.888261</v>
+      </c>
+      <c r="I23">
+        <v>0.2765159509021746</v>
+      </c>
+      <c r="J23">
+        <v>0.203060451919131</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>11.92168433333333</v>
+      </c>
+      <c r="N23">
+        <v>35.765053</v>
+      </c>
+      <c r="O23">
+        <v>0.3602683841868553</v>
+      </c>
+      <c r="P23">
+        <v>0.4477572421950576</v>
+      </c>
+      <c r="Q23">
+        <v>17.21646795713883</v>
+      </c>
+      <c r="R23">
+        <v>103.298807742833</v>
+      </c>
+      <c r="S23">
+        <v>0.09961995483341826</v>
+      </c>
+      <c r="T23">
+        <v>0.09092178795019221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.4441305</v>
+      </c>
+      <c r="H24">
+        <v>2.888261</v>
+      </c>
+      <c r="I24">
+        <v>0.2765159509021746</v>
+      </c>
+      <c r="J24">
+        <v>0.203060451919131</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1483576666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.4450730000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.004483307505659122</v>
+      </c>
+      <c r="P24">
+        <v>0.005572049873810641</v>
+      </c>
+      <c r="Q24">
+        <v>0.2142478313421667</v>
+      </c>
+      <c r="R24">
+        <v>1.285486988053</v>
+      </c>
+      <c r="S24">
+        <v>0.001239706038114189</v>
+      </c>
+      <c r="T24">
+        <v>0.001131462965491926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.4441305</v>
+      </c>
+      <c r="H25">
+        <v>2.888261</v>
+      </c>
+      <c r="I25">
+        <v>0.2765159509021746</v>
+      </c>
+      <c r="J25">
+        <v>0.203060451919131</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.218697</v>
+      </c>
+      <c r="N25">
+        <v>0.656091</v>
+      </c>
+      <c r="O25">
+        <v>0.006608933151854636</v>
+      </c>
+      <c r="P25">
+        <v>0.008213870025272926</v>
+      </c>
+      <c r="Q25">
+        <v>0.3158270079585</v>
+      </c>
+      <c r="R25">
+        <v>1.894962047751</v>
+      </c>
+      <c r="S25">
+        <v>0.001827475434933991</v>
+      </c>
+      <c r="T25">
+        <v>0.001667912159336924</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.4441305</v>
+      </c>
+      <c r="H26">
+        <v>2.888261</v>
+      </c>
+      <c r="I26">
+        <v>0.2765159509021746</v>
+      </c>
+      <c r="J26">
+        <v>0.203060451919131</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>19.39737</v>
+      </c>
+      <c r="N26">
+        <v>38.79474</v>
+      </c>
+      <c r="O26">
+        <v>0.5861805221461225</v>
+      </c>
+      <c r="P26">
+        <v>0.4856871257558122</v>
+      </c>
+      <c r="Q26">
+        <v>28.012333636785</v>
+      </c>
+      <c r="R26">
+        <v>112.04933454714</v>
+      </c>
+      <c r="S26">
+        <v>0.1620882644815683</v>
+      </c>
+      <c r="T26">
+        <v>0.09862384724727905</v>
       </c>
     </row>
   </sheetData>
